--- a/MasterSheet.xlsx
+++ b/MasterSheet.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace 115\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace 115\PDF\StevensSpad\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{103301BB-0145-45BC-A632-A30032D4D834}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="840" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="13" r:id="rId1"/>
-    <sheet name="BS-CS A apply" sheetId="2" r:id="rId2"/>
-    <sheet name="BS-CS B analyze" sheetId="3" r:id="rId3"/>
-    <sheet name="BS-CS C design" sheetId="4" r:id="rId4"/>
-    <sheet name="BS-CS D teamwork" sheetId="5" r:id="rId5"/>
-    <sheet name="BS-CS E responsibility" sheetId="6" r:id="rId6"/>
-    <sheet name="BS-CS F communicate" sheetId="7" r:id="rId7"/>
-    <sheet name="BS-CS G impact" sheetId="8" r:id="rId8"/>
-    <sheet name="BS-CS H prof dev" sheetId="9" r:id="rId9"/>
-    <sheet name="BS-CS I currency" sheetId="10" r:id="rId10"/>
-    <sheet name="BS-CS J tradeoffs" sheetId="11" r:id="rId11"/>
-    <sheet name="BS-CS K construction" sheetId="12" r:id="rId12"/>
+    <sheet name="BS-CS A apply" sheetId="2" r:id="rId1"/>
+    <sheet name="BS-CS B analyze" sheetId="3" r:id="rId2"/>
+    <sheet name="BS-CS C design" sheetId="4" r:id="rId3"/>
+    <sheet name="BS-CS D teamwork" sheetId="5" r:id="rId4"/>
+    <sheet name="BS-CS E responsibility" sheetId="6" r:id="rId5"/>
+    <sheet name="BS-CS F communicate" sheetId="7" r:id="rId6"/>
+    <sheet name="BS-CS G impact" sheetId="8" r:id="rId7"/>
+    <sheet name="BS-CS H prof dev" sheetId="9" r:id="rId8"/>
+    <sheet name="BS-CS I currency" sheetId="10" r:id="rId9"/>
+    <sheet name="BS-CS J tradeoffs" sheetId="11" r:id="rId10"/>
+    <sheet name="BS-CS K construction" sheetId="12" r:id="rId11"/>
+    <sheet name="Summary" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -233,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,460 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1173,8 +721,300 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1214,12 +1054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,8 +1204,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1413,8 +1253,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1486,8 +1326,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1559,8 +1399,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1632,8 +1472,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1693,4 +1533,165 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>